--- a/Data/AirQuality/AQE/coords_aqe.xlsx
+++ b/Data/AirQuality/AQE/coords_aqe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/ucfnxch_ucl_ac_uk/Documents/Xiaoyi_dissertation/Analysis/Data/AirQuality/AQE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="474" documentId="11_7677FDD1F31CBB258C1D50C67541ED9BADC72F9E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3C8D845-6F12-45ED-A24C-69AF1C7788FD}"/>
+  <xr:revisionPtr revIDLastSave="531" documentId="11_7677FDD1F31CBB258C1D50C67541ED9BADC72F9E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7A9EDA9-4A43-40AB-B8EC-89322AF29370}"/>
   <bookViews>
-    <workbookView xWindow="10718" yWindow="0" windowWidth="10965" windowHeight="12863" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13500" yWindow="3405" windowWidth="15240" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,11 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Urban Background</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Site</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,14 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The Aldgate School</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CT3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Latitude</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,37 +57,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Guildhall</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CT9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>London Bloomsbury</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CLL2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>VS010</t>
+  </si>
+  <si>
+    <t>Urban Traffic</t>
+  </si>
+  <si>
+    <t>VS009</t>
+  </si>
+  <si>
+    <t>RBKC Kensington High Street 2</t>
+  </si>
+  <si>
+    <t>Burnaby Street</t>
+  </si>
+  <si>
+    <t>RBKC Sedding Street</t>
+  </si>
+  <si>
+    <t>VS008</t>
+  </si>
+  <si>
+    <t>RBKC Kensington High Street 1</t>
+  </si>
+  <si>
+    <t>VS007</t>
+  </si>
+  <si>
+    <t>RBKC Earl's Court Road</t>
+  </si>
+  <si>
+    <t>KC5</t>
+  </si>
+  <si>
+    <t>RBKC Holland Park Avenue</t>
+  </si>
+  <si>
+    <t>VS014</t>
+  </si>
+  <si>
+    <t>Urban Background</t>
+  </si>
+  <si>
+    <t>RBKC Chelsea Old Town Hall</t>
+  </si>
+  <si>
+    <t>KC4</t>
+  </si>
+  <si>
+    <t>RBKC Knightsbridge</t>
+  </si>
+  <si>
+    <t>KC3</t>
+  </si>
+  <si>
+    <t>RBKC Cromwell Road</t>
+  </si>
+  <si>
+    <t>KC2</t>
+  </si>
+  <si>
+    <t>London N. Kensington (RBKC North Kensington)</t>
+  </si>
+  <si>
+    <t>KC1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -177,10 +214,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -435,103 +468,240 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="24.9296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="C2" s="3">
+        <v>51.499802000000003</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-0.196634</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3">
-        <v>51.513872999999997</v>
-      </c>
-      <c r="D2" s="3">
-        <v>-7.7736E-2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C3" s="3">
+        <v>51.478779000000003</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-0.183424</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="3">
+        <v>51.493485</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-0.15689800000000001</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3">
+        <v>51.502167</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-0.19001699999999999</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3">
+        <v>51.490197999999999</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-0.190863</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3">
+        <v>51.506191999999999</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-0.209427</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3">
+        <v>51.487437</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-0.16839699999999999</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3">
+        <v>51.499139999999997</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-0.16433800000000001</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3">
+        <v>51.495503999999997</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-0.178809</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="3">
+        <v>51.521050000000002</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-0.21349199999999999</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="E14" s="2"/>
     </row>
-    <row r="30" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:5">
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:5">
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:5">
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:5">
       <c r="E33" s="2"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:5">
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:5">
       <c r="E38" s="2"/>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:5">
       <c r="E41" s="2"/>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:5">
       <c r="E71" s="2"/>
     </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:5">
       <c r="E74" s="2"/>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:5">
       <c r="E83" s="2"/>
     </row>
   </sheetData>
@@ -547,7 +717,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -561,7 +731,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
